--- a/Veri-2.xlsx
+++ b/Veri-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\muy665-bahar2024-pokemon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF986AEC-1AA7-4F39-850A-C611AFCB1B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D735FF9-5226-49DE-B6E6-62D471247593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="1350" windowWidth="15375" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>ADALAR</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>ESENYURT</t>
-  </si>
-  <si>
-    <t>Genel Toplam</t>
   </si>
   <si>
     <t>can_kaybı_hasarlı_bina</t>
@@ -544,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,22 +559,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1358,26 +1355,6 @@
       </c>
       <c r="F40" s="3">
         <v>26.36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="3">
-        <v>15626962</v>
-      </c>
-      <c r="C41" s="3">
-        <v>751534</v>
-      </c>
-      <c r="D41" s="3">
-        <v>14145</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="F41" s="3">
-        <v>18.821999999999999</v>
       </c>
     </row>
   </sheetData>
